--- a/pred_ohlcv/54_21/2020-01-16 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PCM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1003867.8632</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-941106.3628000002</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-961480.3144000003</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-990379.3144000003</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1200380.7552</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4525995.675000001</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4315224.580885787</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4315161.580885787</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4318537.008285788</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5000356.709579295</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5006388.652079295</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 PCM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 PCM ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-1003867.8632</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-941106.3628000002</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-956094.7888000002</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-961480.3144000003</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-990379.3144000003</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-1200380.7552</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-1269820.4043</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-5125995.675000001</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-4525995.675000001</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H116">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-4206566.229385788</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-4315224.580885787</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-4315161.580885787</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-4318537.008285788</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-5000356.709579295</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-5006388.652079295</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-5023376.921779295</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
